--- a/results/mp/deberta/corona/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="179">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,127 +64,127 @@
     <t>low</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>credit</t>
   </si>
   <si>
     <t>relief</t>
@@ -916,10 +916,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -998,7 +998,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1098,7 +1098,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>0.967741935483871</v>
@@ -1198,7 +1198,7 @@
         <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>0.9555555555555556</v>
@@ -1248,7 +1248,7 @@
         <v>388</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8">
         <v>0.9482758620689655</v>
@@ -1298,7 +1298,7 @@
         <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>0.8974358974358975</v>
@@ -1348,7 +1348,7 @@
         <v>128</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10">
         <v>0.8888888888888888</v>
@@ -1377,28 +1377,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.08441558441558442</v>
+        <v>0.01670378619153675</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="E11">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="F11">
-        <v>0.06999999999999995</v>
+        <v>0.18</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>141</v>
+        <v>883</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11">
         <v>0.8666666666666667</v>
@@ -1427,28 +1427,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01670378619153675</v>
+        <v>0.01391982182628062</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>85</v>
+        <v>372</v>
       </c>
       <c r="E12">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="F12">
-        <v>0.18</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>883</v>
+        <v>1771</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12">
         <v>0.8636363636363636</v>
@@ -1477,28 +1477,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01391982182628062</v>
+        <v>0.01081916537867079</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>372</v>
+        <v>547</v>
       </c>
       <c r="E13">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F13">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1771</v>
+        <v>2560</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13">
         <v>0.8611111111111112</v>
@@ -1527,13 +1527,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01081916537867079</v>
+        <v>0.006385242993969493</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>547</v>
+        <v>400</v>
       </c>
       <c r="E14">
         <v>0.95</v>
@@ -1545,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2560</v>
+        <v>2801</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14">
         <v>0.8545454545454545</v>
@@ -1573,32 +1573,8 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.006385242993969493</v>
-      </c>
-      <c r="C15">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>400</v>
-      </c>
-      <c r="E15">
-        <v>0.95</v>
-      </c>
-      <c r="F15">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2801</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15">
         <v>0.8461538461538461</v>
@@ -1624,7 +1600,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16">
         <v>0.8346456692913385</v>
@@ -1650,7 +1626,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17">
         <v>0.825</v>
@@ -1676,7 +1652,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18">
         <v>0.7894736842105263</v>
@@ -1702,7 +1678,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19">
         <v>0.7647058823529411</v>
@@ -1728,7 +1704,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20">
         <v>0.76</v>
@@ -1754,7 +1730,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>0.75</v>
@@ -1780,7 +1756,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22">
         <v>0.7388535031847133</v>
@@ -1806,7 +1782,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
         <v>0.7301587301587301</v>
@@ -1832,7 +1808,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
         <v>0.7111111111111111</v>
@@ -1858,7 +1834,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>0.7083333333333334</v>
@@ -1884,59 +1860,59 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.6939655172413793</v>
+        <v>0.68</v>
       </c>
       <c r="L26">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="M26">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="N26">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O26">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.68</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L27">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="M27">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="N27">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>0.6666666666666666</v>
@@ -1962,7 +1938,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
         <v>0.6595744680851063</v>
@@ -1988,7 +1964,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>0.6595744680851063</v>
@@ -2014,7 +1990,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>0.6111111111111112</v>
@@ -2040,7 +2016,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32">
         <v>0.6086956521739131</v>
@@ -2066,7 +2042,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33">
         <v>0.6078431372549019</v>
@@ -2092,7 +2068,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34">
         <v>0.5909090909090909</v>
@@ -2118,7 +2094,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35">
         <v>0.5873015873015873</v>
@@ -2144,28 +2120,28 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.5688073394495413</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L36">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>141</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2173,25 +2149,25 @@
         <v>55</v>
       </c>
       <c r="K37">
-        <v>0.5588235294117647</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L37">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2199,25 +2175,25 @@
         <v>56</v>
       </c>
       <c r="K38">
-        <v>0.5483870967741935</v>
+        <v>0.5470588235294118</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="N38">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -4614,7 +4590,7 @@
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K131">
         <v>0.1685612211757064</v>
@@ -4666,7 +4642,7 @@
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K133">
         <v>0.163833805476865</v>
@@ -5134,7 +5110,7 @@
     </row>
     <row r="151" spans="10:17">
       <c r="J151" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K151">
         <v>0.1200125667609174</v>
@@ -5446,7 +5422,7 @@
     </row>
     <row r="163" spans="10:17">
       <c r="J163" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K163">
         <v>0.07345225603357818</v>
